--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>12.7471243001468</v>
+        <v>1.133506333333333</v>
       </c>
       <c r="H2">
-        <v>12.7471243001468</v>
+        <v>3.400519</v>
       </c>
       <c r="I2">
-        <v>0.2066625030548939</v>
+        <v>0.01621866215342843</v>
       </c>
       <c r="J2">
-        <v>0.2066625030548939</v>
+        <v>0.01621866215342843</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N2">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O2">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P2">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q2">
-        <v>163.753084464384</v>
+        <v>14.84953788121322</v>
       </c>
       <c r="R2">
-        <v>163.753084464384</v>
+        <v>133.645840930919</v>
       </c>
       <c r="S2">
-        <v>0.0135444243297603</v>
+        <v>0.00106848037225194</v>
       </c>
       <c r="T2">
-        <v>0.0135444243297603</v>
+        <v>0.00106848037225194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>12.7471243001468</v>
+        <v>1.133506333333333</v>
       </c>
       <c r="H3">
-        <v>12.7471243001468</v>
+        <v>3.400519</v>
       </c>
       <c r="I3">
-        <v>0.2066625030548939</v>
+        <v>0.01621866215342843</v>
       </c>
       <c r="J3">
-        <v>0.2066625030548939</v>
+        <v>0.01621866215342843</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N3">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O3">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P3">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q3">
-        <v>523.7422361399299</v>
+        <v>46.67035236027189</v>
       </c>
       <c r="R3">
-        <v>523.7422361399299</v>
+        <v>420.0331712424471</v>
       </c>
       <c r="S3">
-        <v>0.0433200211702859</v>
+        <v>0.003358108236224682</v>
       </c>
       <c r="T3">
-        <v>0.0433200211702859</v>
+        <v>0.003358108236224682</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>12.7471243001468</v>
+        <v>1.133506333333333</v>
       </c>
       <c r="H4">
-        <v>12.7471243001468</v>
+        <v>3.400519</v>
       </c>
       <c r="I4">
-        <v>0.2066625030548939</v>
+        <v>0.01621866215342843</v>
       </c>
       <c r="J4">
-        <v>0.2066625030548939</v>
+        <v>0.01621866215342843</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N4">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O4">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P4">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q4">
-        <v>809.6849938651449</v>
+        <v>72.24000976422555</v>
       </c>
       <c r="R4">
-        <v>809.6849938651449</v>
+        <v>650.16008787803</v>
       </c>
       <c r="S4">
-        <v>0.06697105685807177</v>
+        <v>0.005197941723292016</v>
       </c>
       <c r="T4">
-        <v>0.06697105685807177</v>
+        <v>0.005197941723292015</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>12.7471243001468</v>
+        <v>1.133506333333333</v>
       </c>
       <c r="H5">
-        <v>12.7471243001468</v>
+        <v>3.400519</v>
       </c>
       <c r="I5">
-        <v>0.2066625030548939</v>
+        <v>0.01621866215342843</v>
       </c>
       <c r="J5">
-        <v>0.2066625030548939</v>
+        <v>0.01621866215342843</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N5">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O5">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P5">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q5">
-        <v>832.8699967395116</v>
+        <v>75.22840550886868</v>
       </c>
       <c r="R5">
-        <v>832.8699967395116</v>
+        <v>677.0556495798181</v>
       </c>
       <c r="S5">
-        <v>0.06888874603042708</v>
+        <v>0.005412968091332199</v>
       </c>
       <c r="T5">
-        <v>0.06888874603042708</v>
+        <v>0.005412968091332199</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>12.7471243001468</v>
+        <v>1.133506333333333</v>
       </c>
       <c r="H6">
-        <v>12.7471243001468</v>
+        <v>3.400519</v>
       </c>
       <c r="I6">
-        <v>0.2066625030548939</v>
+        <v>0.01621866215342843</v>
       </c>
       <c r="J6">
-        <v>0.2066625030548939</v>
+        <v>0.01621866215342843</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.2198069288072</v>
+        <v>14.48213333333333</v>
       </c>
       <c r="N6">
-        <v>13.2198069288072</v>
+        <v>43.4464</v>
       </c>
       <c r="O6">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976351</v>
       </c>
       <c r="P6">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976349</v>
       </c>
       <c r="Q6">
-        <v>168.5145221454473</v>
+        <v>16.41558985351111</v>
       </c>
       <c r="R6">
-        <v>168.5145221454473</v>
+        <v>147.7403086816</v>
       </c>
       <c r="S6">
-        <v>0.01393825466634891</v>
+        <v>0.001181163730327594</v>
       </c>
       <c r="T6">
-        <v>0.01393825466634891</v>
+        <v>0.001181163730327594</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.9918438784564</v>
+        <v>12.97532366666667</v>
       </c>
       <c r="H7">
-        <v>26.9918438784564</v>
+        <v>38.925971</v>
       </c>
       <c r="I7">
-        <v>0.4376047402255641</v>
+        <v>0.1856561226810239</v>
       </c>
       <c r="J7">
-        <v>0.4376047402255641</v>
+        <v>0.1856561226810239</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N7">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O7">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P7">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q7">
-        <v>346.7446920892922</v>
+        <v>169.9836645310634</v>
       </c>
       <c r="R7">
-        <v>346.7446920892922</v>
+        <v>1529.852980779571</v>
       </c>
       <c r="S7">
-        <v>0.02868011469286811</v>
+        <v>0.01223096709189045</v>
       </c>
       <c r="T7">
-        <v>0.02868011469286811</v>
+        <v>0.01223096709189045</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.9918438784564</v>
+        <v>12.97532366666667</v>
       </c>
       <c r="H8">
-        <v>26.9918438784564</v>
+        <v>38.925971</v>
       </c>
       <c r="I8">
-        <v>0.4376047402255641</v>
+        <v>0.1856561226810239</v>
       </c>
       <c r="J8">
-        <v>0.4376047402255641</v>
+        <v>0.1856561226810239</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N8">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O8">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P8">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q8">
-        <v>1109.016303408905</v>
+        <v>534.2386801943248</v>
       </c>
       <c r="R8">
-        <v>1109.016303408905</v>
+        <v>4808.148121748924</v>
       </c>
       <c r="S8">
-        <v>0.09172949291992998</v>
+        <v>0.03844049211845107</v>
       </c>
       <c r="T8">
-        <v>0.09172949291992998</v>
+        <v>0.03844049211845107</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.9918438784564</v>
+        <v>12.97532366666667</v>
       </c>
       <c r="H9">
-        <v>26.9918438784564</v>
+        <v>38.925971</v>
       </c>
       <c r="I9">
-        <v>0.4376047402255641</v>
+        <v>0.1856561226810239</v>
       </c>
       <c r="J9">
-        <v>0.4376047402255641</v>
+        <v>0.1856561226810239</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N9">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O9">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P9">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q9">
-        <v>1714.495789837496</v>
+        <v>826.9362779981411</v>
       </c>
       <c r="R9">
-        <v>1714.495789837496</v>
+        <v>7442.426501983269</v>
       </c>
       <c r="S9">
-        <v>0.141810205072487</v>
+        <v>0.05950119048902683</v>
       </c>
       <c r="T9">
-        <v>0.141810205072487</v>
+        <v>0.05950119048902682</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.9918438784564</v>
+        <v>12.97532366666667</v>
       </c>
       <c r="H10">
-        <v>26.9918438784564</v>
+        <v>38.925971</v>
       </c>
       <c r="I10">
-        <v>0.4376047402255641</v>
+        <v>0.1856561226810239</v>
       </c>
       <c r="J10">
-        <v>0.4376047402255641</v>
+        <v>0.1856561226810239</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N10">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O10">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P10">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q10">
-        <v>1763.589684520806</v>
+        <v>861.1446462185515</v>
       </c>
       <c r="R10">
-        <v>1763.589684520806</v>
+        <v>7750.301815966963</v>
       </c>
       <c r="S10">
-        <v>0.1458708830363023</v>
+        <v>0.06196261186810676</v>
       </c>
       <c r="T10">
-        <v>0.1458708830363023</v>
+        <v>0.06196261186810675</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.9918438784564</v>
+        <v>12.97532366666667</v>
       </c>
       <c r="H11">
-        <v>26.9918438784564</v>
+        <v>38.925971</v>
       </c>
       <c r="I11">
-        <v>0.4376047402255641</v>
+        <v>0.1856561226810239</v>
       </c>
       <c r="J11">
-        <v>0.4376047402255641</v>
+        <v>0.1856561226810239</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.2198069288072</v>
+        <v>14.48213333333333</v>
       </c>
       <c r="N11">
-        <v>13.2198069288072</v>
+        <v>43.4464</v>
       </c>
       <c r="O11">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976351</v>
       </c>
       <c r="P11">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976349</v>
       </c>
       <c r="Q11">
-        <v>356.8269647257001</v>
+        <v>187.9103673838222</v>
       </c>
       <c r="R11">
-        <v>356.8269647257001</v>
+        <v>1691.1933064544</v>
       </c>
       <c r="S11">
-        <v>0.02951404450397675</v>
+        <v>0.01352086111354877</v>
       </c>
       <c r="T11">
-        <v>0.02951404450397675</v>
+        <v>0.01352086111354876</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.1669186380528</v>
+        <v>27.37424833333334</v>
       </c>
       <c r="H12">
-        <v>21.1669186380528</v>
+        <v>82.12274500000001</v>
       </c>
       <c r="I12">
-        <v>0.3431682538507059</v>
+        <v>0.3916816980781916</v>
       </c>
       <c r="J12">
-        <v>0.3431682538507059</v>
+        <v>0.3916816980781916</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N12">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O12">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P12">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q12">
-        <v>271.9160913452367</v>
+        <v>358.6172618905272</v>
       </c>
       <c r="R12">
-        <v>271.9160913452367</v>
+        <v>3227.555357014745</v>
       </c>
       <c r="S12">
-        <v>0.02249085527345155</v>
+        <v>0.0258038673355306</v>
       </c>
       <c r="T12">
-        <v>0.02249085527345155</v>
+        <v>0.02580386733553059</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.1669186380528</v>
+        <v>27.37424833333334</v>
       </c>
       <c r="H13">
-        <v>21.1669186380528</v>
+        <v>82.12274500000001</v>
       </c>
       <c r="I13">
-        <v>0.3431682538507059</v>
+        <v>0.3916816980781916</v>
       </c>
       <c r="J13">
-        <v>0.3431682538507059</v>
+        <v>0.3916816980781916</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N13">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O13">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P13">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q13">
-        <v>869.6870791130563</v>
+        <v>1127.091907424354</v>
       </c>
       <c r="R13">
-        <v>869.6870791130563</v>
+        <v>10143.82716681919</v>
       </c>
       <c r="S13">
-        <v>0.07193397835616984</v>
+        <v>0.0810985224213949</v>
       </c>
       <c r="T13">
-        <v>0.07193397835616984</v>
+        <v>0.08109852242139488</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.1669186380528</v>
+        <v>27.37424833333334</v>
       </c>
       <c r="H14">
-        <v>21.1669186380528</v>
+        <v>82.12274500000001</v>
       </c>
       <c r="I14">
-        <v>0.3431682538507059</v>
+        <v>0.3916816980781916</v>
       </c>
       <c r="J14">
-        <v>0.3431682538507059</v>
+        <v>0.3916816980781916</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N14">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O14">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P14">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q14">
-        <v>1344.502178220576</v>
+        <v>1744.600721438406</v>
       </c>
       <c r="R14">
-        <v>1344.502178220576</v>
+        <v>15701.40649294565</v>
       </c>
       <c r="S14">
-        <v>0.1112071145021225</v>
+        <v>0.1255306153757032</v>
       </c>
       <c r="T14">
-        <v>0.1112071145021225</v>
+        <v>0.1255306153757031</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.1669186380528</v>
+        <v>27.37424833333334</v>
       </c>
       <c r="H15">
-        <v>21.1669186380528</v>
+        <v>82.12274500000001</v>
       </c>
       <c r="I15">
-        <v>0.3431682538507059</v>
+        <v>0.3916816980781916</v>
       </c>
       <c r="J15">
-        <v>0.3431682538507059</v>
+        <v>0.3916816980781916</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N15">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O15">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P15">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q15">
-        <v>1383.001455226848</v>
+        <v>1816.770664231377</v>
       </c>
       <c r="R15">
-        <v>1383.001455226848</v>
+        <v>16350.93597808239</v>
       </c>
       <c r="S15">
-        <v>0.1143914853240068</v>
+        <v>0.1307235155156054</v>
       </c>
       <c r="T15">
-        <v>0.1143914853240068</v>
+        <v>0.1307235155156053</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.1669186380528</v>
+        <v>27.37424833333334</v>
       </c>
       <c r="H16">
-        <v>21.1669186380528</v>
+        <v>82.12274500000001</v>
       </c>
       <c r="I16">
-        <v>0.3431682538507059</v>
+        <v>0.3916816980781916</v>
       </c>
       <c r="J16">
-        <v>0.3431682538507059</v>
+        <v>0.3916816980781916</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.2198069288072</v>
+        <v>14.48213333333333</v>
       </c>
       <c r="N16">
-        <v>13.2198069288072</v>
+        <v>43.4464</v>
       </c>
       <c r="O16">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976351</v>
       </c>
       <c r="P16">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976349</v>
       </c>
       <c r="Q16">
-        <v>279.8225776728286</v>
+        <v>396.4375142631112</v>
       </c>
       <c r="R16">
-        <v>279.8225776728286</v>
+        <v>3567.937628368</v>
       </c>
       <c r="S16">
-        <v>0.02314482039495524</v>
+        <v>0.02852517742995754</v>
       </c>
       <c r="T16">
-        <v>0.02314482039495524</v>
+        <v>0.02852517742995753</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.774989548036499</v>
+        <v>27.57037233333333</v>
       </c>
       <c r="H17">
-        <v>0.774989548036499</v>
+        <v>82.71111699999999</v>
       </c>
       <c r="I17">
-        <v>0.01256450286883602</v>
+        <v>0.3944879187429009</v>
       </c>
       <c r="J17">
-        <v>0.01256450286883602</v>
+        <v>0.3944879187429009</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N17">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O17">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P17">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q17">
-        <v>9.955730087073372</v>
+        <v>361.1865909553684</v>
       </c>
       <c r="R17">
-        <v>9.955730087073372</v>
+        <v>3250.679318598317</v>
       </c>
       <c r="S17">
-        <v>0.0008234631625593083</v>
+        <v>0.02598874027215662</v>
       </c>
       <c r="T17">
-        <v>0.0008234631625593083</v>
+        <v>0.02598874027215662</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.774989548036499</v>
+        <v>27.57037233333333</v>
       </c>
       <c r="H18">
-        <v>0.774989548036499</v>
+        <v>82.71111699999999</v>
       </c>
       <c r="I18">
-        <v>0.01256450286883602</v>
+        <v>0.3944879187429009</v>
       </c>
       <c r="J18">
-        <v>0.01256450286883602</v>
+        <v>0.3944879187429009</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N18">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O18">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P18">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q18">
-        <v>31.8420648701947</v>
+        <v>1135.167006713291</v>
       </c>
       <c r="R18">
-        <v>31.8420648701947</v>
+        <v>10216.50306041962</v>
       </c>
       <c r="S18">
-        <v>0.002633736271584392</v>
+        <v>0.08167955633391351</v>
       </c>
       <c r="T18">
-        <v>0.002633736271584392</v>
+        <v>0.08167955633391351</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.774989548036499</v>
+        <v>27.57037233333333</v>
       </c>
       <c r="H19">
-        <v>0.774989548036499</v>
+        <v>82.71111699999999</v>
       </c>
       <c r="I19">
-        <v>0.01256450286883602</v>
+        <v>0.3944879187429009</v>
       </c>
       <c r="J19">
-        <v>0.01256450286883602</v>
+        <v>0.3944879187429009</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N19">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O19">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P19">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q19">
-        <v>49.22658575160028</v>
+        <v>1757.099989645699</v>
       </c>
       <c r="R19">
-        <v>49.22658575160028</v>
+        <v>15813.89990681129</v>
       </c>
       <c r="S19">
-        <v>0.004071653171638562</v>
+        <v>0.1264299849624094</v>
       </c>
       <c r="T19">
-        <v>0.004071653171638562</v>
+        <v>0.1264299849624094</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.774989548036499</v>
+        <v>27.57037233333333</v>
       </c>
       <c r="H20">
-        <v>0.774989548036499</v>
+        <v>82.71111699999999</v>
       </c>
       <c r="I20">
-        <v>0.01256450286883602</v>
+        <v>0.3944879187429009</v>
       </c>
       <c r="J20">
-        <v>0.01256450286883602</v>
+        <v>0.3944879187429009</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N20">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O20">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P20">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q20">
-        <v>50.63616915847295</v>
+        <v>1829.786997151753</v>
       </c>
       <c r="R20">
-        <v>50.63616915847295</v>
+        <v>16468.08297436577</v>
       </c>
       <c r="S20">
-        <v>0.004188243316204818</v>
+        <v>0.1316600898625898</v>
       </c>
       <c r="T20">
-        <v>0.004188243316204818</v>
+        <v>0.1316600898625898</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>27.57037233333333</v>
+      </c>
+      <c r="H21">
+        <v>82.71111699999999</v>
+      </c>
+      <c r="I21">
+        <v>0.3944879187429009</v>
+      </c>
+      <c r="J21">
+        <v>0.3944879187429009</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.48213333333333</v>
+      </c>
+      <c r="N21">
+        <v>43.4464</v>
+      </c>
+      <c r="O21">
+        <v>0.07282744526976351</v>
+      </c>
+      <c r="P21">
+        <v>0.07282744526976349</v>
+      </c>
+      <c r="Q21">
+        <v>399.2778081809777</v>
+      </c>
+      <c r="R21">
+        <v>3593.500273628799</v>
+      </c>
+      <c r="S21">
+        <v>0.02872954731183153</v>
+      </c>
+      <c r="T21">
+        <v>0.02872954731183152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.835565</v>
+      </c>
+      <c r="H22">
+        <v>2.506695</v>
+      </c>
+      <c r="I22">
+        <v>0.01195559834445515</v>
+      </c>
+      <c r="J22">
+        <v>0.01195559834445515</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.10053366666667</v>
+      </c>
+      <c r="N22">
+        <v>39.301601</v>
+      </c>
+      <c r="O22">
+        <v>0.0658796861383586</v>
+      </c>
+      <c r="P22">
+        <v>0.06587968613835858</v>
+      </c>
+      <c r="Q22">
+        <v>10.94634741318833</v>
+      </c>
+      <c r="R22">
+        <v>98.517126718695</v>
+      </c>
+      <c r="S22">
+        <v>0.0007876310665289849</v>
+      </c>
+      <c r="T22">
+        <v>0.0007876310665289847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.835565</v>
+      </c>
+      <c r="H23">
+        <v>2.506695</v>
+      </c>
+      <c r="I23">
+        <v>0.01195559834445515</v>
+      </c>
+      <c r="J23">
+        <v>0.01195559834445515</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>41.17343766666667</v>
+      </c>
+      <c r="N23">
+        <v>123.520313</v>
+      </c>
+      <c r="O23">
+        <v>0.2070521109852959</v>
+      </c>
+      <c r="P23">
+        <v>0.2070521109852959</v>
+      </c>
+      <c r="Q23">
+        <v>34.40308344394834</v>
+      </c>
+      <c r="R23">
+        <v>309.6277509955351</v>
+      </c>
+      <c r="S23">
+        <v>0.002475431875311748</v>
+      </c>
+      <c r="T23">
+        <v>0.002475431875311747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.835565</v>
+      </c>
+      <c r="H24">
+        <v>2.506695</v>
+      </c>
+      <c r="I24">
+        <v>0.01195559834445515</v>
+      </c>
+      <c r="J24">
+        <v>0.01195559834445515</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>63.73145666666667</v>
+      </c>
+      <c r="N24">
+        <v>191.19437</v>
+      </c>
+      <c r="O24">
+        <v>0.3204913989896037</v>
+      </c>
+      <c r="P24">
+        <v>0.3204913989896036</v>
+      </c>
+      <c r="Q24">
+        <v>53.25177458968334</v>
+      </c>
+      <c r="R24">
+        <v>479.26597130715</v>
+      </c>
+      <c r="S24">
+        <v>0.00383166643917222</v>
+      </c>
+      <c r="T24">
+        <v>0.003831666439172219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.774989548036499</v>
-      </c>
-      <c r="H21">
-        <v>0.774989548036499</v>
-      </c>
-      <c r="I21">
-        <v>0.01256450286883602</v>
-      </c>
-      <c r="J21">
-        <v>0.01256450286883602</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>13.2198069288072</v>
-      </c>
-      <c r="N21">
-        <v>13.2198069288072</v>
-      </c>
-      <c r="O21">
-        <v>0.06744452651212984</v>
-      </c>
-      <c r="P21">
-        <v>0.06744452651212984</v>
-      </c>
-      <c r="Q21">
-        <v>10.24521219688607</v>
-      </c>
-      <c r="R21">
-        <v>10.24521219688607</v>
-      </c>
-      <c r="S21">
-        <v>0.0008474069468489427</v>
-      </c>
-      <c r="T21">
-        <v>0.0008474069468489427</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.835565</v>
+      </c>
+      <c r="H25">
+        <v>2.506695</v>
+      </c>
+      <c r="I25">
+        <v>0.01195559834445515</v>
+      </c>
+      <c r="J25">
+        <v>0.01195559834445515</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>66.36787400000001</v>
+      </c>
+      <c r="N25">
+        <v>199.103622</v>
+      </c>
+      <c r="O25">
+        <v>0.3337493586169783</v>
+      </c>
+      <c r="P25">
+        <v>0.3337493586169782</v>
+      </c>
+      <c r="Q25">
+        <v>55.45467263881001</v>
+      </c>
+      <c r="R25">
+        <v>499.0920537492901</v>
+      </c>
+      <c r="S25">
+        <v>0.003990173279344113</v>
+      </c>
+      <c r="T25">
+        <v>0.003990173279344113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.835565</v>
+      </c>
+      <c r="H26">
+        <v>2.506695</v>
+      </c>
+      <c r="I26">
+        <v>0.01195559834445515</v>
+      </c>
+      <c r="J26">
+        <v>0.01195559834445515</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.48213333333333</v>
+      </c>
+      <c r="N26">
+        <v>43.4464</v>
+      </c>
+      <c r="O26">
+        <v>0.07282744526976351</v>
+      </c>
+      <c r="P26">
+        <v>0.07282744526976349</v>
+      </c>
+      <c r="Q26">
+        <v>12.10076373866667</v>
+      </c>
+      <c r="R26">
+        <v>108.906873648</v>
+      </c>
+      <c r="S26">
+        <v>0.0008706956840980826</v>
+      </c>
+      <c r="T26">
+        <v>0.0008706956840980824</v>
       </c>
     </row>
   </sheetData>
